--- a/task management/TaskManagement.xlsx
+++ b/task management/TaskManagement.xlsx
@@ -1,40 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Task" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug" sheetId="4" r:id="rId2"/>
+    <sheet name="Issuse" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+  <si>
+    <t>Stupid Game Studio</t>
+  </si>
+  <si>
+    <t>RWH Project</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Due date</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Time remaining</t>
+  </si>
+  <si>
+    <t>Today:</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -42,18 +141,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,37 +601,2902 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="24" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="2:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="2:13" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13">
+        <f ca="1">TODAY()</f>
+        <v>42205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="18">
+        <v>42204</v>
+      </c>
+      <c r="I8" s="18">
+        <v>42211</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0</v>
+      </c>
+      <c r="K8" s="30">
+        <f>J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="30">
+        <f ca="1">($E$5-H8)*100%/(I8-$E$5)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="31">
+        <f t="shared" ref="K9:K32" si="0">J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="31">
+        <f t="shared" ref="M9:M31" ca="1" si="1">($E$5-H9)*100%/(I9-$E$5)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="34">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="33">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="34">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="34">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="33">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="33">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="34">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="34">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="33">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="34">
+        <v>14</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="34">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="33">
+        <v>16</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="34">
+        <v>17</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="34">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="33">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="34">
+        <v>20</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="34">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="33">
+        <v>22</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="34">
+        <v>23</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="34">
+        <v>24</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="29">
+        <f t="shared" ref="M9:M32" ca="1" si="2">($E$5-H32)*100%/(I32-$E$5)</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M8:M32">
+    <cfRule type="dataBar" priority="7">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E6F90AFD-1CF4-4E48-9F54-19FD83EF42B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E557BBD-3564-4B18-AFE3-A4FB91C928A0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D7875327-78F9-4916-A374-BC68ED86559E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2480F846-3C00-4372-8B43-656331AC7388}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{84284C78-4A4C-422B-AE34-39812DAC4A95}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A459AABD-D234-4C56-9BB4-E273D1BB19A7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C2FF353B-9F59-4F25-873B-D42B617CC9E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7A61D240-10B6-429E-B9A7-0ACAD5B735BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42D32564-3130-4086-BEB6-6E30A92C5F16}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8DAC463F-A0ED-46BE-A267-650670431B4E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{224C762B-8488-43AD-B7DB-4E94AC94EA6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D5FBC497-B87A-4966-9701-D63141953143}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E6F90AFD-1CF4-4E48-9F54-19FD83EF42B9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0E557BBD-3564-4B18-AFE3-A4FB91C928A0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{D7875327-78F9-4916-A374-BC68ED86559E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2480F846-3C00-4372-8B43-656331AC7388}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{84284C78-4A4C-422B-AE34-39812DAC4A95}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{A459AABD-D234-4C56-9BB4-E273D1BB19A7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M8:M32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C2FF353B-9F59-4F25-873B-D42B617CC9E6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7A61D240-10B6-429E-B9A7-0ACAD5B735BA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{42D32564-3130-4086-BEB6-6E30A92C5F16}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8DAC463F-A0ED-46BE-A267-650670431B4E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{224C762B-8488-43AD-B7DB-4E94AC94EA6A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{D5FBC497-B87A-4966-9701-D63141953143}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K8:K32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="24" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="2:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="2:13" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13">
+        <f ca="1">TODAY()</f>
+        <v>42205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="18">
+        <v>42204</v>
+      </c>
+      <c r="I8" s="18">
+        <v>42211</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0</v>
+      </c>
+      <c r="K8" s="30">
+        <f>J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="30">
+        <f ca="1">($E$5-H8)*100%/(I8-$E$5)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="31">
+        <f t="shared" ref="K9:K32" si="0">J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="31">
+        <f t="shared" ref="M9:M32" ca="1" si="1">($E$5-H9)*100%/(I9-$E$5)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="33">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="34">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="33">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="34">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="33">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="33">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="34">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="33">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="34">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="33">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="34">
+        <v>14</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="33">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="34">
+        <v>16</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="33">
+        <v>17</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="34">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="33">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="34">
+        <v>20</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="33">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="34">
+        <v>22</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="33">
+        <v>23</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="34">
+        <v>24</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M8:M32">
+    <cfRule type="dataBar" priority="7">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E2DBF29-EEE7-44EF-B6D0-D0E684B5B925}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EC149897-476C-4E81-BBC3-DC0F0F561757}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73D2302A-4964-433B-91E8-EC38FBDD4AEF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34E08A2B-1BAC-4A02-ACEE-0990F9E4905D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{52E3FEE0-9AEA-4310-BB6D-41D4FD272354}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4260279-2696-4133-88F7-BD1FF832E5DF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7BF86BD2-31D2-45B3-806D-41F243D4E87D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1C29C0DD-B192-49B9-93C7-2E757175FB57}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34B55430-77BA-467A-BAE9-482FA06C066D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9B65CAF1-4223-4221-8937-C005430A7C64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6AEE7C99-8A9C-4043-B2AE-C9A99BC35231}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A2A46759-E973-43D7-A291-C30B7F7AE2BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E2DBF29-EEE7-44EF-B6D0-D0E684B5B925}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{EC149897-476C-4E81-BBC3-DC0F0F561757}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{73D2302A-4964-433B-91E8-EC38FBDD4AEF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{34E08A2B-1BAC-4A02-ACEE-0990F9E4905D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{52E3FEE0-9AEA-4310-BB6D-41D4FD272354}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{B4260279-2696-4133-88F7-BD1FF832E5DF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M8:M32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7BF86BD2-31D2-45B3-806D-41F243D4E87D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1C29C0DD-B192-49B9-93C7-2E757175FB57}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{34B55430-77BA-467A-BAE9-482FA06C066D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9B65CAF1-4223-4221-8937-C005430A7C64}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{6AEE7C99-8A9C-4043-B2AE-C9A99BC35231}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{A2A46759-E973-43D7-A291-C30B7F7AE2BA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K8:K32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="24" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="2:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="2:13" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13">
+        <f ca="1">TODAY()</f>
+        <v>42205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="18">
+        <v>42204</v>
+      </c>
+      <c r="I8" s="18">
+        <v>42211</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0</v>
+      </c>
+      <c r="K8" s="30">
+        <f>J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="30">
+        <f ca="1">($E$5-H8)*100%/(I8-$E$5)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="31">
+        <f t="shared" ref="K9:K32" si="0">J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="31">
+        <f t="shared" ref="M9:M32" ca="1" si="1">($E$5-H9)*100%/(I9-$E$5)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="34">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="33">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="34">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="34">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="33">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="33">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="34">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="34">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="33">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="34">
+        <v>14</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="34">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="33">
+        <v>16</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="34">
+        <v>17</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="34">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="33">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="34">
+        <v>20</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="34">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="33">
+        <v>22</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="34">
+        <v>23</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="34">
+        <v>24</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M8:M32">
+    <cfRule type="dataBar" priority="7">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F085C31-E825-4E15-A8AC-E2491EB03B0E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0870E1E9-B857-4FE0-8B65-87D6B2160F78}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8875255B-1FBA-413E-8978-F5943594A1B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{89735A05-73DD-4C69-BCCC-C724285DAC30}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF34690C-AB5B-49EF-8CC0-68807BA6E447}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C2B10CE8-B000-4626-9E38-681491926667}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B09D774F-944F-4940-ABE3-239B3D1BA9FC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5492F28B-1C4D-492C-9251-31277A89FDBA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{07E64C7E-54B7-4D09-BD76-C4C6D744D622}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{05ECABA7-E5A8-4A66-BC28-0A34DC57AF64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0982EF69-C733-4722-B1CF-7DA718C0A217}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED8996A1-EC8A-49AE-BD8B-9E2A5AA0BF3D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F085C31-E825-4E15-A8AC-E2491EB03B0E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0870E1E9-B857-4FE0-8B65-87D6B2160F78}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8875255B-1FBA-413E-8978-F5943594A1B6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{89735A05-73DD-4C69-BCCC-C724285DAC30}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{FF34690C-AB5B-49EF-8CC0-68807BA6E447}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{C2B10CE8-B000-4626-9E38-681491926667}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M8:M32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B09D774F-944F-4940-ABE3-239B3D1BA9FC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5492F28B-1C4D-492C-9251-31277A89FDBA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{07E64C7E-54B7-4D09-BD76-C4C6D744D622}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{05ECABA7-E5A8-4A66-BC28-0A34DC57AF64}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0982EF69-C733-4722-B1CF-7DA718C0A217}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ED8996A1-EC8A-49AE-BD8B-9E2A5AA0BF3D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K8:K32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>